--- a/C13ModelData/MFA model and data.xlsx
+++ b/C13ModelData/MFA model and data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\St. Elmo\Dropbox\Research\Writing\GSM\Docs\Supplement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\St. Elmo\Dropbox\Research\Writing\iNlan20\iNlan20\C13ModelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E23F28-37FC-4F24-A76A-557EDEF6551B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C946222-0D8F-470B-B02D-3973DCEBFDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{086D130D-E2F1-48C1-9716-E2B60D575E03}"/>
+    <workbookView xWindow="-23385" yWindow="3120" windowWidth="21705" windowHeight="12480" activeTab="2" xr2:uid="{086D130D-E2F1-48C1-9716-E2B60D575E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbon transition model" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="284">
   <si>
     <t>Gluc.ext (abcdef) + ATP -&gt; G6P (abcdef) + ADP</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>Assumed standard error</t>
+  </si>
+  <si>
+    <t>Note: due to the metabolic degeneracy of the duplicate PFL in both the cytosol as well as the hydrogenosome the max ATP constraint forces the maximum flux through the hydrogenosome.</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0064F0F3-D1EF-463F-AE7D-35B29B2A332A}">
   <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5618,9 +5621,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5238C9B-E93E-4967-871C-F3304882A6BF}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5730,6 +5735,11 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
